--- a/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/ssla_vorlage.xlsx
+++ b/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/ssla_vorlage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws-intern\PlanPro-Git\eclipse-set\java\bundles\org.eclipse.set.feature\rootdir\data\export\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F57FFCB-9572-440D-8142-EDB9DA310614}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3376BBD8-A13F-4597-A9BC-E956073CA2E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="32760" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1657,16 +1657,12 @@
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="E3:E4"/>
   </mergeCells>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.19685039370078741" bottom="0.59055118110236227" header="0" footer="0"/>
+  <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.19685039370078741" bottom="0.59055118110236227" header="0" footer="0"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -1712,7 +1708,20 @@
 </spe:Receivers>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E758A0F93049BE4CAD441F10C0D8186D" ma:contentTypeVersion="5" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fb340e34ecc5d059b634082484788e96">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="576ce185-3b2e-4f75-8b7c-efeb82226bea" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae5cd419a40dc0c21009e0c04d2bd83e" ns2:_="" ns3:_="">
     <xsd:import namespace="576ce185-3b2e-4f75-8b7c-efeb82226bea"/>
@@ -1904,16 +1913,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA61470-DD61-4999-8627-225AC049B66F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{947F1741-2986-4B63-8B5C-D0468C671233}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
@@ -1921,15 +1929,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA61470-DD61-4999-8627-225AC049B66F}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C5838C-81AB-4B9A-B282-4E4B57DAFB8B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD45C59E-C13E-4B92-9551-AE1790848EFA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1946,12 +1954,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C5838C-81AB-4B9A-B282-4E4B57DAFB8B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/ssla_vorlage.xlsx
+++ b/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/ssla_vorlage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws-intern\PlanPro-Git\eclipse-set\java\bundles\org.eclipse.set.feature\rootdir\data\export\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws_intern\planpro\set\java\bundles\org.eclipse.set.feature\rootdir\data\export\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3376BBD8-A13F-4597-A9BC-E956073CA2E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934DDCDE-F311-4485-9207-0DD39F6228C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="32760" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ssla_Beispielbefüllung" sheetId="7" r:id="rId1"/>
@@ -108,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -145,19 +145,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -168,31 +155,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -230,6 +195,17 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -237,7 +213,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -251,20 +227,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -273,15 +236,15 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -291,39 +254,12 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -336,128 +272,96 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -478,9 +382,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -518,9 +422,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -553,26 +457,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -605,26 +492,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -801,161 +671,159 @@
   <dimension ref="A1:W63"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="86" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:H63"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15" style="4" customWidth="1"/>
-    <col min="3" max="4" width="7.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="100.5703125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8" style="2" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" style="3"/>
-    <col min="23" max="23" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="3" customWidth="1"/>
+    <col min="3" max="4" width="7.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="100.5703125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="8" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" style="2"/>
+    <col min="23" max="23" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-    </row>
-    <row r="2" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="27" t="s">
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="21" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="2"/>
-    </row>
-    <row r="3" spans="1:23" s="4" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" s="3" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="30" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:23" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B6" s="16"/>
@@ -967,685 +835,682 @@
       <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
+      <c r="B8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
+      <c r="B9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
+      <c r="B10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
+      <c r="B11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
+      <c r="B12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
+      <c r="B13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
+      <c r="B14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
+      <c r="B15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
+      <c r="B16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
+      <c r="B17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
+      <c r="B18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
+      <c r="B19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
+      <c r="B20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
+      <c r="B21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
+      <c r="B22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
+      <c r="B23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
+      <c r="B24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
+      <c r="B25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
+      <c r="B26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
+      <c r="B27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
+      <c r="B28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
+      <c r="B29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
+      <c r="B30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
+      <c r="B31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
+      <c r="B32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
+      <c r="B33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
+      <c r="B34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
+      <c r="B35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
+      <c r="B36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
+      <c r="B37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
+      <c r="B38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
+      <c r="B39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
+      <c r="B40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
+      <c r="B41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
+      <c r="B42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
+      <c r="B43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
+      <c r="B44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
+      <c r="B45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
+      <c r="B46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
+      <c r="B47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
+      <c r="B48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
+      <c r="B49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
+      <c r="B50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
+      <c r="B51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
     </row>
     <row r="52" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
+      <c r="B52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
+      <c r="B53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
+      <c r="B54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
+      <c r="B55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
+      <c r="B56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
+      <c r="B57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
     </row>
     <row r="58" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
+      <c r="B58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
     </row>
     <row r="59" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
+      <c r="B59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
     </row>
     <row r="60" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
+      <c r="B60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
     </row>
     <row r="61" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
+      <c r="B61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
     </row>
     <row r="62" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
+      <c r="B62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
     </row>
     <row r="63" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
+      <c r="B63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1663,6 +1528,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -1706,19 +1584,6 @@
     <Filter/>
   </Receiver>
 </spe:Receivers>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1914,9 +1779,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA61470-DD61-4999-8627-225AC049B66F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C5838C-81AB-4B9A-B282-4E4B57DAFB8B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1930,9 +1795,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C5838C-81AB-4B9A-B282-4E4B57DAFB8B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA61470-DD61-4999-8627-225AC049B66F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
